--- a/docs/normalisatie.xlsx
+++ b/docs/normalisatie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Github\MVC-Project-S4-Groep-4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D6C1D8-7B45-4D00-A2B1-437A92AFE9FD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C36E34-51C4-458E-99B2-2673F1F703C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6000" xr2:uid="{12675932-9843-4EC0-94CC-4F08A89A705A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>0NF</t>
   </si>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E0C99-1975-4A84-9402-F00215ABF30E}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,12 +641,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -658,17 +658,17 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -682,12 +682,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -695,12 +695,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -708,22 +708,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/normalisatie.xlsx
+++ b/docs/normalisatie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Github\MVC-Project-S4-Groep-4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C36E34-51C4-458E-99B2-2673F1F703C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584865C4-2D34-4307-BCFA-DCEA267ED9C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6000" xr2:uid="{12675932-9843-4EC0-94CC-4F08A89A705A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>0NF</t>
   </si>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E0C99-1975-4A84-9402-F00215ABF30E}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,12 +641,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -658,17 +658,17 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -682,12 +682,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -695,12 +695,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -708,25 +708,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/normalisatie.xlsx
+++ b/docs/normalisatie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Github\MVC-Project-S4-Groep-4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D6C1D8-7B45-4D00-A2B1-437A92AFE9FD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584865C4-2D34-4307-BCFA-DCEA267ED9C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6000" xr2:uid="{12675932-9843-4EC0-94CC-4F08A89A705A}"/>
   </bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E0C99-1975-4A84-9402-F00215ABF30E}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/normalisatie.xlsx
+++ b/docs/normalisatie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Github\MVC-Project-S4-Groep-4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584865C4-2D34-4307-BCFA-DCEA267ED9C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655E202-4B1D-454B-BD50-9AA668153B46}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6000" xr2:uid="{12675932-9843-4EC0-94CC-4F08A89A705A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>0NF</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>3NF</t>
+  </si>
+  <si>
+    <t>Onderhoud_id</t>
   </si>
 </sst>
 </file>
@@ -172,14 +175,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -494,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E0C99-1975-4A84-9402-F00215ABF30E}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,220 +520,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
+      <c r="E26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/normalisatie.xlsx
+++ b/docs/normalisatie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Github\MVC-Project-S4-Groep-4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655E202-4B1D-454B-BD50-9AA668153B46}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BB644-248C-42D9-83E4-98F7F682EF6B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6000" xr2:uid="{12675932-9843-4EC0-94CC-4F08A89A705A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>0NF</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>3NF</t>
-  </si>
-  <si>
-    <t>Onderhoud_id</t>
   </si>
 </sst>
 </file>
@@ -505,16 +502,16 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
@@ -740,17 +737,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="D20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -806,15 +801,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/normalisatie.xlsx
+++ b/docs/normalisatie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Github\MVC-Project-S4-Groep-4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BB644-248C-42D9-83E4-98F7F682EF6B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE3C75-7453-4A42-A0EB-5A2A8EBA222D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6000" xr2:uid="{12675932-9843-4EC0-94CC-4F08A89A705A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>0NF</t>
   </si>
   <si>
-    <t>Kenteken</t>
-  </si>
-  <si>
     <t>Merk</t>
   </si>
   <si>
@@ -78,32 +76,59 @@
     <t>Dealer</t>
   </si>
   <si>
-    <t>Werk plaats (RG)</t>
-  </si>
-  <si>
     <t>Werkplaats</t>
   </si>
   <si>
-    <t>WP_nr</t>
-  </si>
-  <si>
     <t>WP_naam</t>
   </si>
   <si>
     <t>Onderhoud</t>
   </si>
   <si>
-    <t>Onderhoud_ID</t>
-  </si>
-  <si>
     <t>3NF</t>
+  </si>
+  <si>
+    <t>Onderhoud (RG)</t>
+  </si>
+  <si>
+    <t>Kenteken (FK)</t>
+  </si>
+  <si>
+    <t>Onderhoud_datum (PK_FK)</t>
+  </si>
+  <si>
+    <t>Kenteken (PK)</t>
+  </si>
+  <si>
+    <t>Dealernr (FK)</t>
+  </si>
+  <si>
+    <t>Dealernr (PK)</t>
+  </si>
+  <si>
+    <t>WP_nr (PK)</t>
+  </si>
+  <si>
+    <t>ONDERHOUD</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>WPnr (FK)</t>
+  </si>
+  <si>
+    <t>Kenteken (PK_FK)</t>
+  </si>
+  <si>
+    <t>Onderhoud_datum (PK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +145,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -185,6 +219,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -499,19 +540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E0C99-1975-4A84-9402-F00215ABF30E}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
@@ -530,32 +571,32 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -571,7 +612,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -580,7 +621,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -588,25 +629,25 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -615,202 +656,169 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
